--- a/doc/Tabel Referensi by Walid.xlsx
+++ b/doc/Tabel Referensi by Walid.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\htdocs\toolujian\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="source" sheetId="1" r:id="rId1"/>
-    <sheet name="semester list" sheetId="3" r:id="rId2"/>
-    <sheet name="matkul" sheetId="4" r:id="rId3"/>
-    <sheet name="prodi list" sheetId="2" r:id="rId4"/>
+    <sheet name="prodi list" sheetId="2" r:id="rId2"/>
+    <sheet name="semester list" sheetId="3" r:id="rId3"/>
+    <sheet name="matkul" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -416,12 +416,6 @@
     <t>d3aktap</t>
   </si>
   <si>
-    <t>d4akt</t>
-  </si>
-  <si>
-    <t>d4aktapnon</t>
-  </si>
-  <si>
     <t>d3pjk</t>
   </si>
   <si>
@@ -449,45 +443,6 @@
     <t>d3ma</t>
   </si>
   <si>
-    <t>D-III Akuntansi</t>
-  </si>
-  <si>
-    <t>D-III Akuntansi Alih Program</t>
-  </si>
-  <si>
-    <t>D-III Pajak</t>
-  </si>
-  <si>
-    <t>D-III Pajak Alih Program</t>
-  </si>
-  <si>
-    <t>D-III Pbb/Penilai</t>
-  </si>
-  <si>
-    <t>D-III Pbb/Penilai Alih Program</t>
-  </si>
-  <si>
-    <t>D-III Kepabeanan Dan Cukai</t>
-  </si>
-  <si>
-    <t>D-III Kepabeanan Dan Cukai Alih Program</t>
-  </si>
-  <si>
-    <t>D-III Kebendaharaan Negara</t>
-  </si>
-  <si>
-    <t>D-III Kebendaharaan Negara Alih Program</t>
-  </si>
-  <si>
-    <t>D-III Manajemen Aset</t>
-  </si>
-  <si>
-    <t>D-IV Akuntansi Alih Program (Non Akt)</t>
-  </si>
-  <si>
-    <t>D-IV Akuntansi (Reguler)</t>
-  </si>
-  <si>
     <t>DIII AKUNTANSI</t>
   </si>
   <si>
@@ -1197,13 +1152,58 @@
   </si>
   <si>
     <t>ManStrat</t>
+  </si>
+  <si>
+    <t>DIII Akuntansi</t>
+  </si>
+  <si>
+    <t>DIII Akuntansi Alih Program</t>
+  </si>
+  <si>
+    <t>DIV Akuntansi (Reguler)</t>
+  </si>
+  <si>
+    <t>DIV Akuntansi Alih Program (Non Akt)</t>
+  </si>
+  <si>
+    <t>DIII Pajak</t>
+  </si>
+  <si>
+    <t>DIII Pajak Alih Program</t>
+  </si>
+  <si>
+    <t>DIII Kepabeanan Dan Cukai</t>
+  </si>
+  <si>
+    <t>DIII Kepabeanan Dan Cukai Alih Program</t>
+  </si>
+  <si>
+    <t>DIII Kebendaharaan Negara</t>
+  </si>
+  <si>
+    <t>DIII Kebendaharaan Negara Alih Program</t>
+  </si>
+  <si>
+    <t>DIII Manajemen Aset</t>
+  </si>
+  <si>
+    <t>DIII PBB/Penilai</t>
+  </si>
+  <si>
+    <t>DIII PBB/Penilai Alih Program</t>
+  </si>
+  <si>
+    <t>d4aktreg</t>
+  </si>
+  <si>
+    <t>d4aktapnonakt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1231,6 +1231,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1252,7 +1260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1273,6 +1281,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2188,10 +2197,230 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G1:G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"&lt;option value='"&amp;D1&amp;"'&gt;"&amp;E1&amp;"&lt;/option&gt;"</f>
+        <v>&lt;option value='d3akt'&gt;DIII Akuntansi&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G13" si="0">"&lt;option value='"&amp;D2&amp;"'&gt;"&amp;E2&amp;"&lt;/option&gt;"</f>
+        <v>&lt;option value='d3aktap'&gt;DIII Akuntansi Alih Program&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E3" t="s">
+        <v>377</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value='d4aktreg'&gt;DIV Akuntansi (Reguler)&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="E4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value='d4aktapnonakt'&gt;DIV Akuntansi Alih Program (Non Akt)&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>379</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value='d3pjk'&gt;DIII Pajak&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" t="s">
+        <v>380</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value='d3pjkap'&gt;DIII Pajak Alih Program&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value='d3pbb'&gt;DIII PBB/Penilai&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" t="s">
+        <v>387</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value='d3pbbap'&gt;DIII PBB/Penilai Alih Program&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" t="s">
+        <v>381</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value='d3bc'&gt;DIII Kepabeanan Dan Cukai&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" t="s">
+        <v>382</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value='d3bcap'&gt;DIII Kepabeanan Dan Cukai Alih Program&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" t="s">
+        <v>383</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value='d3kbn'&gt;DIII Kebendaharaan Negara&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" t="s">
+        <v>384</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value='d3kbnap'&gt;DIII Kebendaharaan Negara Alih Program&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" t="s">
+        <v>385</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;option value='d3ma'&gt;DIII Manajemen Aset&lt;/option&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C25:C1048576 C1:C13">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2201,7 +2430,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B1">
         <v>3</v>
@@ -2217,7 +2446,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -2233,7 +2462,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -2249,7 +2478,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -2265,55 +2494,55 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
       <c r="D5" t="str">
         <f>VLOOKUP(A5,'prodi list'!$C$1:$D$13,2,FALSE)</f>
-        <v>d4akt</v>
+        <v>d4aktreg</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='7d4akt' class='d4akt'&gt;7&lt;/option&gt;</v>
+        <v>&lt;option value='7d4aktreg' class='d4aktreg'&gt;7&lt;/option&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B6">
         <v>7</v>
       </c>
       <c r="D6" t="str">
         <f>VLOOKUP(A6,'prodi list'!$C$1:$D$13,2,FALSE)</f>
-        <v>d4aktapnon</v>
+        <v>d4aktapnonakt</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='7d4aktapnon' class='d4aktapnon'&gt;7&lt;/option&gt;</v>
+        <v>&lt;option value='7d4aktapnonakt' class='d4aktapnonakt'&gt;7&lt;/option&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B7">
         <v>9</v>
       </c>
       <c r="D7" t="str">
         <f>VLOOKUP(A7,'prodi list'!$C$1:$D$13,2,FALSE)</f>
-        <v>d4aktapnon</v>
+        <v>d4aktapnonakt</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='9d4aktapnon' class='d4aktapnon'&gt;9&lt;/option&gt;</v>
+        <v>&lt;option value='9d4aktapnonakt' class='d4aktapnonakt'&gt;9&lt;/option&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2329,7 +2558,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -2345,7 +2574,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -2361,7 +2590,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -2377,7 +2606,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -2393,7 +2622,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -2409,7 +2638,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -2425,7 +2654,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -2441,7 +2670,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -2457,7 +2686,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -2473,7 +2702,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -2489,7 +2718,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -2505,7 +2734,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -2521,7 +2750,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -2537,7 +2766,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -2553,7 +2782,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -2569,7 +2798,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -2585,7 +2814,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -2604,12 +2833,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B78" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="B135" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,16 +2855,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="F1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2643,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(B2,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -2653,10 +2882,10 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="G2" t="str">
         <f>"&lt;option value='"&amp;F2&amp;"' class='"&amp;D2&amp;C2&amp;"'&gt;"&amp;E2&amp;"&lt;/option&gt;"</f>
@@ -2668,7 +2897,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(B3,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -2678,10 +2907,10 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="0">"&lt;option value='"&amp;F3&amp;"' class='"&amp;D3&amp;C3&amp;"'&gt;"&amp;E3&amp;"&lt;/option&gt;"</f>
@@ -2693,7 +2922,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(B4,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -2703,10 +2932,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
@@ -2718,7 +2947,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(B5,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -2728,10 +2957,10 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -2743,7 +2972,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C6" t="str">
         <f>VLOOKUP(B6,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -2753,10 +2982,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -2768,7 +2997,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C7" t="str">
         <f>VLOOKUP(B7,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -2778,10 +3007,10 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -2793,7 +3022,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C8" t="str">
         <f>VLOOKUP(B8,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -2803,10 +3032,10 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F8" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -2818,7 +3047,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C9" t="str">
         <f>VLOOKUP(B9,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -2828,10 +3057,10 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="F9" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -2843,7 +3072,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C10" t="str">
         <f>VLOOKUP(B10,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -2853,10 +3082,10 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F10" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -2868,7 +3097,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C11" t="str">
         <f>VLOOKUP(B11,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -2878,10 +3107,10 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="F11" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
@@ -2893,7 +3122,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C12" t="str">
         <f>VLOOKUP(B12,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -2903,10 +3132,10 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F12" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
@@ -2918,7 +3147,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C13" t="str">
         <f>VLOOKUP(B13,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -2928,10 +3157,10 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F13" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
@@ -2943,7 +3172,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C14" t="str">
         <f>VLOOKUP(B14,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -2953,10 +3182,10 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F14" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -2968,7 +3197,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C15" t="str">
         <f>VLOOKUP(B15,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -2978,10 +3207,10 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F15" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -2993,7 +3222,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C16" t="str">
         <f>VLOOKUP(B16,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3003,10 +3232,10 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="F16" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
@@ -3018,7 +3247,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C17" t="str">
         <f>VLOOKUP(B17,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3028,10 +3257,10 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F17" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -3043,7 +3272,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C18" t="str">
         <f>VLOOKUP(B18,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3053,10 +3282,10 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F18" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
@@ -3068,7 +3297,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C19" t="str">
         <f>VLOOKUP(B19,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3078,10 +3307,10 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
@@ -3093,7 +3322,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C20" t="str">
         <f>VLOOKUP(B20,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3103,10 +3332,10 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
@@ -3118,7 +3347,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C21" t="str">
         <f>VLOOKUP(B21,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3128,10 +3357,10 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
@@ -3143,7 +3372,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C22" t="str">
         <f>VLOOKUP(B22,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3153,10 +3382,10 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
@@ -3168,7 +3397,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C23" t="str">
         <f>VLOOKUP(B23,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3178,10 +3407,10 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
@@ -3193,7 +3422,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C24" t="str">
         <f>VLOOKUP(B24,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3203,10 +3432,10 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
@@ -3218,7 +3447,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C25" t="str">
         <f>VLOOKUP(B25,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3228,10 +3457,10 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
@@ -3243,7 +3472,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C26" t="str">
         <f>VLOOKUP(B26,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3253,10 +3482,10 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F26" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
@@ -3268,7 +3497,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C27" t="str">
         <f>VLOOKUP(B27,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3278,10 +3507,10 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F27" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
@@ -3293,7 +3522,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C28" t="str">
         <f>VLOOKUP(B28,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3303,10 +3532,10 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F28" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
@@ -3318,7 +3547,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C29" t="str">
         <f>VLOOKUP(B29,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3328,10 +3557,10 @@
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="F29" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
@@ -3343,7 +3572,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C30" t="str">
         <f>VLOOKUP(B30,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3353,10 +3582,10 @@
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F30" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
@@ -3368,7 +3597,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C31" t="str">
         <f>VLOOKUP(B31,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3378,10 +3607,10 @@
         <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="F31" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
@@ -3393,7 +3622,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C32" t="str">
         <f>VLOOKUP(B32,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3403,10 +3632,10 @@
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="F32" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
@@ -3418,7 +3647,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C33" t="str">
         <f>VLOOKUP(B33,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3428,10 +3657,10 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="F33" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
@@ -3443,7 +3672,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C34" t="str">
         <f>VLOOKUP(B34,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3453,10 +3682,10 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F34" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
@@ -3468,7 +3697,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C35" t="str">
         <f>VLOOKUP(B35,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3478,10 +3707,10 @@
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="F35" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
@@ -3493,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C36" t="str">
         <f>VLOOKUP(B36,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3503,10 +3732,10 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="F36" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
@@ -3518,7 +3747,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C37" t="str">
         <f>VLOOKUP(B37,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3528,10 +3757,10 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="F37" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
@@ -3543,7 +3772,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C38" t="str">
         <f>VLOOKUP(B38,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3553,10 +3782,10 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="F38" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
@@ -3568,7 +3797,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C39" t="str">
         <f>VLOOKUP(B39,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3578,10 +3807,10 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="F39" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
@@ -3593,7 +3822,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C40" t="str">
         <f>VLOOKUP(B40,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3603,10 +3832,10 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="F40" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -3618,7 +3847,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C41" t="str">
         <f>VLOOKUP(B41,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3628,10 +3857,10 @@
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="F41" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
@@ -3643,7 +3872,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C42" t="str">
         <f>VLOOKUP(B42,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3653,10 +3882,10 @@
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="F42" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
@@ -3668,7 +3897,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C43" t="str">
         <f>VLOOKUP(B43,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3678,10 +3907,10 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="F43" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -3693,7 +3922,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C44" t="str">
         <f>VLOOKUP(B44,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3703,10 +3932,10 @@
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="F44" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
@@ -3718,7 +3947,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C45" t="str">
         <f>VLOOKUP(B45,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3728,10 +3957,10 @@
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="F45" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
@@ -3743,7 +3972,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C46" t="str">
         <f>VLOOKUP(B46,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3753,10 +3982,10 @@
         <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="F46" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -3768,7 +3997,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C47" t="str">
         <f>VLOOKUP(B47,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3778,10 +4007,10 @@
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="F47" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
@@ -3793,7 +4022,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C48" t="str">
         <f>VLOOKUP(B48,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3803,10 +4032,10 @@
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="F48" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
@@ -3818,7 +4047,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C49" t="str">
         <f>VLOOKUP(B49,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3828,10 +4057,10 @@
         <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="F49" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -3843,7 +4072,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C50" t="str">
         <f>VLOOKUP(B50,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3853,10 +4082,10 @@
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="F50" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
@@ -3868,7 +4097,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C51" t="str">
         <f>VLOOKUP(B51,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3878,10 +4107,10 @@
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="F51" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -3893,7 +4122,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C52" t="str">
         <f>VLOOKUP(B52,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3903,10 +4132,10 @@
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="F52" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
@@ -3918,7 +4147,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C53" t="str">
         <f>VLOOKUP(B53,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3928,10 +4157,10 @@
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="F53" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -3943,7 +4172,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C54" t="str">
         <f>VLOOKUP(B54,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3953,10 +4182,10 @@
         <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="F54" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
@@ -3968,7 +4197,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C55" t="str">
         <f>VLOOKUP(B55,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -3978,10 +4207,10 @@
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F55" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -3993,7 +4222,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C56" t="str">
         <f>VLOOKUP(B56,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4003,10 +4232,10 @@
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F56" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
@@ -4018,7 +4247,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C57" t="str">
         <f>VLOOKUP(B57,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4028,10 +4257,10 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F57" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -4043,7 +4272,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C58" t="str">
         <f>VLOOKUP(B58,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4053,10 +4282,10 @@
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="F58" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
@@ -4068,7 +4297,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C59" t="str">
         <f>VLOOKUP(B59,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4078,10 +4307,10 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="F59" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
@@ -4093,7 +4322,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C60" t="str">
         <f>VLOOKUP(B60,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4103,10 +4332,10 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="F60" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
@@ -4118,7 +4347,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C61" t="str">
         <f>VLOOKUP(B61,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4128,10 +4357,10 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F61" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
@@ -4143,7 +4372,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C62" t="str">
         <f>VLOOKUP(B62,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4153,10 +4382,10 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="F62" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
@@ -4168,7 +4397,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C63" t="str">
         <f>VLOOKUP(B63,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4178,10 +4407,10 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="F63" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
@@ -4193,7 +4422,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C64" t="str">
         <f>VLOOKUP(B64,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4203,10 +4432,10 @@
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="F64" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
@@ -4218,7 +4447,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C65" t="str">
         <f>VLOOKUP(B65,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4228,10 +4457,10 @@
         <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="F65" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
@@ -4243,7 +4472,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C66" t="str">
         <f>VLOOKUP(B66,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4253,10 +4482,10 @@
         <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="F66" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
@@ -4268,7 +4497,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C67" t="str">
         <f>VLOOKUP(B67,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4278,10 +4507,10 @@
         <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="F67" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G130" si="1">"&lt;option value='"&amp;F67&amp;"' class='"&amp;D67&amp;C67&amp;"'&gt;"&amp;E67&amp;"&lt;/option&gt;"</f>
@@ -4293,7 +4522,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C68" t="str">
         <f>VLOOKUP(B68,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4303,10 +4532,10 @@
         <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="F68" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="1"/>
@@ -4318,7 +4547,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C69" t="str">
         <f>VLOOKUP(B69,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4328,10 +4557,10 @@
         <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="F69" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="1"/>
@@ -4343,7 +4572,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C70" t="str">
         <f>VLOOKUP(B70,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4353,10 +4582,10 @@
         <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="F70" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
@@ -4368,7 +4597,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C71" t="str">
         <f>VLOOKUP(B71,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4378,10 +4607,10 @@
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F71" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
@@ -4393,7 +4622,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C72" t="str">
         <f>VLOOKUP(B72,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4403,10 +4632,10 @@
         <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="F72" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
@@ -4418,7 +4647,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C73" t="str">
         <f>VLOOKUP(B73,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4428,10 +4657,10 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F73" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
@@ -4443,7 +4672,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C74" t="str">
         <f>VLOOKUP(B74,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4453,10 +4682,10 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="F74" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
@@ -4468,7 +4697,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C75" t="str">
         <f>VLOOKUP(B75,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4478,10 +4707,10 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="F75" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
@@ -4493,7 +4722,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C76" t="str">
         <f>VLOOKUP(B76,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4503,10 +4732,10 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="F76" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
@@ -4518,7 +4747,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C77" t="str">
         <f>VLOOKUP(B77,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4528,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="F77" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
@@ -4543,7 +4772,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C78" t="str">
         <f>VLOOKUP(B78,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4553,10 +4782,10 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="F78" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
@@ -4568,7 +4797,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C79" t="str">
         <f>VLOOKUP(B79,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4578,10 +4807,10 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="F79" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
@@ -4593,7 +4822,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C80" t="str">
         <f>VLOOKUP(B80,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4603,10 +4832,10 @@
         <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="F80" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
@@ -4618,7 +4847,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C81" t="str">
         <f>VLOOKUP(B81,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4628,10 +4857,10 @@
         <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="F81" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
@@ -4643,7 +4872,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C82" t="str">
         <f>VLOOKUP(B82,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4653,10 +4882,10 @@
         <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F82" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
@@ -4668,7 +4897,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C83" t="str">
         <f>VLOOKUP(B83,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4678,10 +4907,10 @@
         <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="F83" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
@@ -4693,7 +4922,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C84" t="str">
         <f>VLOOKUP(B84,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4703,10 +4932,10 @@
         <v>5</v>
       </c>
       <c r="E84" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="F84" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
@@ -4718,7 +4947,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C85" t="str">
         <f>VLOOKUP(B85,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4728,10 +4957,10 @@
         <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="F85" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
@@ -4743,7 +4972,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C86" t="str">
         <f>VLOOKUP(B86,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4753,10 +4982,10 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="F86" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
@@ -4768,7 +4997,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C87" t="str">
         <f>VLOOKUP(B87,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4778,10 +5007,10 @@
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="F87" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
@@ -4793,7 +5022,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C88" t="str">
         <f>VLOOKUP(B88,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4803,10 +5032,10 @@
         <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="F88" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
@@ -4818,7 +5047,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C89" t="str">
         <f>VLOOKUP(B89,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4828,10 +5057,10 @@
         <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="F89" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
@@ -4843,7 +5072,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C90" t="str">
         <f>VLOOKUP(B90,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4853,10 +5082,10 @@
         <v>5</v>
       </c>
       <c r="E90" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="F90" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
@@ -4868,7 +5097,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C91" t="str">
         <f>VLOOKUP(B91,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4878,10 +5107,10 @@
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="F91" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
@@ -4893,7 +5122,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C92" t="str">
         <f>VLOOKUP(B92,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4903,10 +5132,10 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="F92" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
@@ -4918,7 +5147,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C93" t="str">
         <f>VLOOKUP(B93,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4928,10 +5157,10 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="F93" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
@@ -4943,7 +5172,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C94" t="str">
         <f>VLOOKUP(B94,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4953,10 +5182,10 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="F94" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
@@ -4968,7 +5197,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C95" t="str">
         <f>VLOOKUP(B95,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -4978,10 +5207,10 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F95" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
@@ -4993,7 +5222,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C96" t="str">
         <f>VLOOKUP(B96,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5003,10 +5232,10 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="F96" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
@@ -5018,7 +5247,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C97" t="str">
         <f>VLOOKUP(B97,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5028,10 +5257,10 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F97" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
@@ -5043,7 +5272,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C98" t="str">
         <f>VLOOKUP(B98,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5053,10 +5282,10 @@
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="F98" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
@@ -5068,7 +5297,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C99" t="str">
         <f>VLOOKUP(B99,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5078,10 +5307,10 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F99" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
@@ -5093,7 +5322,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C100" t="str">
         <f>VLOOKUP(B100,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5103,10 +5332,10 @@
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="F100" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
@@ -5118,7 +5347,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C101" t="str">
         <f>VLOOKUP(B101,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5128,10 +5357,10 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F101" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="1"/>
@@ -5143,7 +5372,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C102" t="str">
         <f>VLOOKUP(B102,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5153,10 +5382,10 @@
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="F102" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="1"/>
@@ -5168,7 +5397,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C103" t="str">
         <f>VLOOKUP(B103,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5178,10 +5407,10 @@
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="F103" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="1"/>
@@ -5193,7 +5422,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C104" t="str">
         <f>VLOOKUP(B104,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5203,10 +5432,10 @@
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="F104" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="1"/>
@@ -5218,7 +5447,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C105" t="str">
         <f>VLOOKUP(B105,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5228,10 +5457,10 @@
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="F105" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="1"/>
@@ -5243,7 +5472,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C106" t="str">
         <f>VLOOKUP(B106,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5253,10 +5482,10 @@
         <v>5</v>
       </c>
       <c r="E106" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="F106" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="1"/>
@@ -5268,7 +5497,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C107" t="str">
         <f>VLOOKUP(B107,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5278,10 +5507,10 @@
         <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="F107" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="1"/>
@@ -5293,7 +5522,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C108" t="str">
         <f>VLOOKUP(B108,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5303,10 +5532,10 @@
         <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="1"/>
@@ -5318,7 +5547,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C109" t="str">
         <f>VLOOKUP(B109,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5328,10 +5557,10 @@
         <v>5</v>
       </c>
       <c r="E109" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="F109" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="1"/>
@@ -5343,7 +5572,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C110" t="str">
         <f>VLOOKUP(B110,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5353,10 +5582,10 @@
         <v>5</v>
       </c>
       <c r="E110" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="F110" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="1"/>
@@ -5368,7 +5597,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C111" t="str">
         <f>VLOOKUP(B111,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5378,10 +5607,10 @@
         <v>5</v>
       </c>
       <c r="E111" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="F111" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="1"/>
@@ -5393,7 +5622,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C112" t="str">
         <f>VLOOKUP(B112,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5403,10 +5632,10 @@
         <v>5</v>
       </c>
       <c r="E112" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="F112" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="1"/>
@@ -5418,7 +5647,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C113" t="str">
         <f>VLOOKUP(B113,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5428,10 +5657,10 @@
         <v>5</v>
       </c>
       <c r="E113" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="F113" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="1"/>
@@ -5443,7 +5672,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C114" t="str">
         <f>VLOOKUP(B114,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5453,10 +5682,10 @@
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F114" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="1"/>
@@ -5468,7 +5697,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C115" t="str">
         <f>VLOOKUP(B115,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5478,10 +5707,10 @@
         <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="F115" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="G115" t="str">
         <f t="shared" si="1"/>
@@ -5493,7 +5722,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C116" t="str">
         <f>VLOOKUP(B116,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5503,10 +5732,10 @@
         <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="F116" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="1"/>
@@ -5518,7 +5747,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C117" t="str">
         <f>VLOOKUP(B117,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5528,10 +5757,10 @@
         <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="F117" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="G117" t="str">
         <f t="shared" si="1"/>
@@ -5543,7 +5772,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C118" t="str">
         <f>VLOOKUP(B118,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5553,10 +5782,10 @@
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="F118" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="1"/>
@@ -5568,7 +5797,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C119" t="str">
         <f>VLOOKUP(B119,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5578,10 +5807,10 @@
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="F119" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="1"/>
@@ -5593,7 +5822,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C120" t="str">
         <f>VLOOKUP(B120,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5603,10 +5832,10 @@
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="F120" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="1"/>
@@ -5618,7 +5847,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C121" t="str">
         <f>VLOOKUP(B121,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5628,10 +5857,10 @@
         <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="F121" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="G121" t="str">
         <f t="shared" si="1"/>
@@ -5643,7 +5872,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C122" t="str">
         <f>VLOOKUP(B122,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5653,10 +5882,10 @@
         <v>5</v>
       </c>
       <c r="E122" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="F122" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="G122" t="str">
         <f t="shared" si="1"/>
@@ -5668,7 +5897,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C123" t="str">
         <f>VLOOKUP(B123,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5678,10 +5907,10 @@
         <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F123" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="G123" t="str">
         <f t="shared" si="1"/>
@@ -5693,7 +5922,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C124" t="str">
         <f>VLOOKUP(B124,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5703,10 +5932,10 @@
         <v>5</v>
       </c>
       <c r="E124" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="F124" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="G124" t="str">
         <f t="shared" si="1"/>
@@ -5718,7 +5947,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C125" t="str">
         <f>VLOOKUP(B125,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5728,10 +5957,10 @@
         <v>5</v>
       </c>
       <c r="E125" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="F125" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="G125" t="str">
         <f t="shared" si="1"/>
@@ -5743,7 +5972,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C126" t="str">
         <f>VLOOKUP(B126,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5753,10 +5982,10 @@
         <v>5</v>
       </c>
       <c r="E126" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="F126" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="G126" t="str">
         <f t="shared" si="1"/>
@@ -5768,7 +5997,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C127" t="str">
         <f>VLOOKUP(B127,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5778,10 +6007,10 @@
         <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="F127" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="G127" t="str">
         <f t="shared" si="1"/>
@@ -5793,7 +6022,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C128" t="str">
         <f>VLOOKUP(B128,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5803,10 +6032,10 @@
         <v>5</v>
       </c>
       <c r="E128" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="F128" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="G128" t="str">
         <f t="shared" si="1"/>
@@ -5818,7 +6047,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C129" t="str">
         <f>VLOOKUP(B129,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5828,10 +6057,10 @@
         <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="F129" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="G129" t="str">
         <f t="shared" si="1"/>
@@ -5843,7 +6072,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C130" t="str">
         <f>VLOOKUP(B130,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5853,10 +6082,10 @@
         <v>5</v>
       </c>
       <c r="E130" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="F130" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="G130" t="str">
         <f t="shared" si="1"/>
@@ -5868,7 +6097,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C131" t="str">
         <f>VLOOKUP(B131,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5878,10 +6107,10 @@
         <v>5</v>
       </c>
       <c r="E131" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="F131" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="G131" t="str">
         <f t="shared" ref="G131:G154" si="2">"&lt;option value='"&amp;F131&amp;"' class='"&amp;D131&amp;C131&amp;"'&gt;"&amp;E131&amp;"&lt;/option&gt;"</f>
@@ -5893,7 +6122,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C132" t="str">
         <f>VLOOKUP(B132,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5903,10 +6132,10 @@
         <v>5</v>
       </c>
       <c r="E132" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="F132" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="G132" t="str">
         <f t="shared" si="2"/>
@@ -5918,7 +6147,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C133" t="str">
         <f>VLOOKUP(B133,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5928,10 +6157,10 @@
         <v>5</v>
       </c>
       <c r="E133" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="F133" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="G133" t="str">
         <f t="shared" si="2"/>
@@ -5943,7 +6172,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C134" t="str">
         <f>VLOOKUP(B134,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5953,10 +6182,10 @@
         <v>5</v>
       </c>
       <c r="E134" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="F134" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="G134" t="str">
         <f t="shared" si="2"/>
@@ -5968,7 +6197,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C135" t="str">
         <f>VLOOKUP(B135,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -5978,10 +6207,10 @@
         <v>5</v>
       </c>
       <c r="E135" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="F135" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="G135" t="str">
         <f t="shared" si="2"/>
@@ -5993,7 +6222,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C136" t="str">
         <f>VLOOKUP(B136,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -6003,10 +6232,10 @@
         <v>6</v>
       </c>
       <c r="E136" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="F136" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="G136" t="str">
         <f t="shared" si="2"/>
@@ -6018,7 +6247,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C137" t="str">
         <f>VLOOKUP(B137,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -6028,10 +6257,10 @@
         <v>6</v>
       </c>
       <c r="E137" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="F137" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="G137" t="str">
         <f t="shared" si="2"/>
@@ -6043,7 +6272,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C138" t="str">
         <f>VLOOKUP(B138,'prodi list'!$C$1:$D$13,2,FALSE)</f>
@@ -6053,10 +6282,10 @@
         <v>6</v>
       </c>
       <c r="E138" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="F138" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="G138" t="str">
         <f t="shared" si="2"/>
@@ -6068,24 +6297,24 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C139" t="str">
         <f>VLOOKUP(B139,'prodi list'!$C$1:$D$13,2,FALSE)</f>
-        <v>d4aktapnon</v>
+        <v>d4aktapnonakt</v>
       </c>
       <c r="D139">
         <v>7</v>
       </c>
       <c r="E139" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="F139" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="G139" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;option value='AkMan' class='7d4aktapnon'&gt;Akuntansi Manajemen&lt;/option&gt;</v>
+        <v>&lt;option value='AkMan' class='7d4aktapnonakt'&gt;Akuntansi Manajemen&lt;/option&gt;</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -6093,24 +6322,24 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C140" t="str">
         <f>VLOOKUP(B140,'prodi list'!$C$1:$D$13,2,FALSE)</f>
-        <v>d4aktapnon</v>
+        <v>d4aktapnonakt</v>
       </c>
       <c r="D140">
         <v>7</v>
       </c>
       <c r="E140" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="F140" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="G140" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;option value='Pjk Kontem' class='7d4aktapnon'&gt;Perpajakan Kontemporer&lt;/option&gt;</v>
+        <v>&lt;option value='Pjk Kontem' class='7d4aktapnonakt'&gt;Perpajakan Kontemporer&lt;/option&gt;</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -6118,24 +6347,24 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C141" t="str">
         <f>VLOOKUP(B141,'prodi list'!$C$1:$D$13,2,FALSE)</f>
-        <v>d4aktapnon</v>
+        <v>d4aktapnonakt</v>
       </c>
       <c r="D141">
         <v>9</v>
       </c>
       <c r="E141" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="F141" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="G141" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;option value='AkKeu Kontem' class='9d4aktapnon'&gt;Akuntansi Keuangan Kontemporer&lt;/option&gt;</v>
+        <v>&lt;option value='AkKeu Kontem' class='9d4aktapnonakt'&gt;Akuntansi Keuangan Kontemporer&lt;/option&gt;</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -6143,24 +6372,24 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C142" t="str">
         <f>VLOOKUP(B142,'prodi list'!$C$1:$D$13,2,FALSE)</f>
-        <v>d4aktapnon</v>
+        <v>d4aktapnonakt</v>
       </c>
       <c r="D142">
         <v>9</v>
       </c>
       <c r="E142" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="F142" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="G142" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;option value='Audit FI' class='9d4aktapnon'&gt;Audit Forensik dan Investigasi&lt;/option&gt;</v>
+        <v>&lt;option value='Audit FI' class='9d4aktapnonakt'&gt;Audit Forensik dan Investigasi&lt;/option&gt;</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -6168,24 +6397,24 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C143" t="str">
         <f>VLOOKUP(B143,'prodi list'!$C$1:$D$13,2,FALSE)</f>
-        <v>d4aktapnon</v>
+        <v>d4aktapnonakt</v>
       </c>
       <c r="D143">
         <v>9</v>
       </c>
       <c r="E143" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="F143" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="G143" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;option value='ASP' class='9d4aktapnon'&gt;Audit Sektor Publik&lt;/option&gt;</v>
+        <v>&lt;option value='ASP' class='9d4aktapnonakt'&gt;Audit Sektor Publik&lt;/option&gt;</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -6193,24 +6422,24 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C144" t="str">
         <f>VLOOKUP(B144,'prodi list'!$C$1:$D$13,2,FALSE)</f>
-        <v>d4aktapnon</v>
+        <v>d4aktapnonakt</v>
       </c>
       <c r="D144">
         <v>9</v>
       </c>
       <c r="E144" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="F144" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="G144" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;option value='ASI' class='9d4aktapnon'&gt;Audit Sistem Informasi&lt;/option&gt;</v>
+        <v>&lt;option value='ASI' class='9d4aktapnonakt'&gt;Audit Sistem Informasi&lt;/option&gt;</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -6218,24 +6447,24 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C145" t="str">
         <f>VLOOKUP(B145,'prodi list'!$C$1:$D$13,2,FALSE)</f>
-        <v>d4aktapnon</v>
+        <v>d4aktapnonakt</v>
       </c>
       <c r="D145">
         <v>9</v>
       </c>
       <c r="E145" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="F145" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="G145" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;option value='SIAP' class='9d4aktapnon'&gt;Sistem Informasi Akuntansi Pemerintah&lt;/option&gt;</v>
+        <v>&lt;option value='SIAP' class='9d4aktapnonakt'&gt;Sistem Informasi Akuntansi Pemerintah&lt;/option&gt;</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -6243,24 +6472,24 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C146" t="str">
         <f>VLOOKUP(B146,'prodi list'!$C$1:$D$13,2,FALSE)</f>
-        <v>d4aktapnon</v>
+        <v>d4aktapnonakt</v>
       </c>
       <c r="D146">
         <v>9</v>
       </c>
       <c r="E146" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="F146" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="G146" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;option value='SPM' class='9d4aktapnon'&gt;Sistem Pengendalian Manajemen&lt;/option&gt;</v>
+        <v>&lt;option value='SPM' class='9d4aktapnonakt'&gt;Sistem Pengendalian Manajemen&lt;/option&gt;</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -6268,24 +6497,24 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C147" t="str">
         <f>VLOOKUP(B147,'prodi list'!$C$1:$D$13,2,FALSE)</f>
-        <v>d4aktapnon</v>
+        <v>d4aktapnonakt</v>
       </c>
       <c r="D147">
         <v>9</v>
       </c>
       <c r="E147" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="F147" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="G147" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;option value='TA' class='9d4aktapnon'&gt;Teori Akuntansi&lt;/option&gt;</v>
+        <v>&lt;option value='TA' class='9d4aktapnonakt'&gt;Teori Akuntansi&lt;/option&gt;</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -6293,24 +6522,24 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C148" t="str">
         <f>VLOOKUP(B148,'prodi list'!$C$1:$D$13,2,FALSE)</f>
-        <v>d4akt</v>
+        <v>d4aktreg</v>
       </c>
       <c r="D148">
         <v>7</v>
       </c>
       <c r="E148" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="F148" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="G148" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;option value='AkKeu Kontem' class='7d4akt'&gt;Akuntansi Keuangan Kontemporer&lt;/option&gt;</v>
+        <v>&lt;option value='AkKeu Kontem' class='7d4aktreg'&gt;Akuntansi Keuangan Kontemporer&lt;/option&gt;</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -6318,24 +6547,24 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C149" t="str">
         <f>VLOOKUP(B149,'prodi list'!$C$1:$D$13,2,FALSE)</f>
-        <v>d4akt</v>
+        <v>d4aktreg</v>
       </c>
       <c r="D149">
         <v>7</v>
       </c>
       <c r="E149" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="F149" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="G149" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;option value='ASP' class='7d4akt'&gt;Audit Sektor Publik&lt;/option&gt;</v>
+        <v>&lt;option value='ASP' class='7d4aktreg'&gt;Audit Sektor Publik&lt;/option&gt;</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -6343,24 +6572,24 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C150" t="str">
         <f>VLOOKUP(B150,'prodi list'!$C$1:$D$13,2,FALSE)</f>
-        <v>d4akt</v>
+        <v>d4aktreg</v>
       </c>
       <c r="D150">
         <v>7</v>
       </c>
       <c r="E150" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="F150" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="G150" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;option value='ASI' class='7d4akt'&gt;Audit Sistem Informasi&lt;/option&gt;</v>
+        <v>&lt;option value='ASI' class='7d4aktreg'&gt;Audit Sistem Informasi&lt;/option&gt;</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -6368,24 +6597,24 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C151" t="str">
         <f>VLOOKUP(B151,'prodi list'!$C$1:$D$13,2,FALSE)</f>
-        <v>d4akt</v>
+        <v>d4aktreg</v>
       </c>
       <c r="D151">
         <v>7</v>
       </c>
       <c r="E151" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="F151" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G151" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;option value='Kepemimpinan' class='7d4akt'&gt;Kepemimpinan&lt;/option&gt;</v>
+        <v>&lt;option value='Kepemimpinan' class='7d4aktreg'&gt;Kepemimpinan&lt;/option&gt;</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -6393,24 +6622,24 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C152" t="str">
         <f>VLOOKUP(B152,'prodi list'!$C$1:$D$13,2,FALSE)</f>
-        <v>d4akt</v>
+        <v>d4aktreg</v>
       </c>
       <c r="D152">
         <v>7</v>
       </c>
       <c r="E152" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="F152" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="G152" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;option value='ManStrat' class='7d4akt'&gt;Manajemen Stratejik&lt;/option&gt;</v>
+        <v>&lt;option value='ManStrat' class='7d4aktreg'&gt;Manajemen Stratejik&lt;/option&gt;</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -6418,24 +6647,24 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C153" t="str">
         <f>VLOOKUP(B153,'prodi list'!$C$1:$D$13,2,FALSE)</f>
-        <v>d4akt</v>
+        <v>d4aktreg</v>
       </c>
       <c r="D153">
         <v>7</v>
       </c>
       <c r="E153" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="F153" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="G153" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;option value='SPM' class='7d4akt'&gt;Sistem Pengendalian Manajemen&lt;/option&gt;</v>
+        <v>&lt;option value='SPM' class='7d4aktreg'&gt;Sistem Pengendalian Manajemen&lt;/option&gt;</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -6443,245 +6672,27 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C154" t="str">
         <f>VLOOKUP(B154,'prodi list'!$C$1:$D$13,2,FALSE)</f>
-        <v>d4akt</v>
+        <v>d4aktreg</v>
       </c>
       <c r="D154">
         <v>7</v>
       </c>
       <c r="E154" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="F154" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="G154" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;option value='TA' class='7d4akt'&gt;Teori Akuntansi&lt;/option&gt;</v>
+        <v>&lt;option value='TA' class='7d4aktreg'&gt;Teori Akuntansi&lt;/option&gt;</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" t="str">
-        <f>"&lt;option value='"&amp;D1&amp;"'&gt;"&amp;E1&amp;"&lt;/option&gt;"</f>
-        <v>&lt;option value='d3akt'&gt;D-III Akuntansi&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" t="str">
-        <f t="shared" ref="G2:G13" si="0">"&lt;option value='"&amp;D2&amp;"'&gt;"&amp;E2&amp;"&lt;/option&gt;"</f>
-        <v>&lt;option value='d3aktap'&gt;D-III Akuntansi Alih Program&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;option value='d4akt'&gt;D-IV Akuntansi (Reguler)&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;option value='d4aktapnon'&gt;D-IV Akuntansi Alih Program (Non Akt)&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;option value='d3pjk'&gt;D-III Pajak&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;option value='d3pjkap'&gt;D-III Pajak Alih Program&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;option value='d3pbb'&gt;D-III Pbb/Penilai&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" t="s">
-        <v>145</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;option value='d3pbbap'&gt;D-III Pbb/Penilai Alih Program&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;option value='d3bc'&gt;D-III Kepabeanan Dan Cukai&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;option value='d3bcap'&gt;D-III Kepabeanan Dan Cukai Alih Program&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;option value='d3kbn'&gt;D-III Kebendaharaan Negara&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;option value='d3kbnap'&gt;D-III Kebendaharaan Negara Alih Program&lt;/option&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;option value='d3ma'&gt;D-III Manajemen Aset&lt;/option&gt;</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C25:C1048576 C1:C13">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/Tabel Referensi by Walid.xlsx
+++ b/doc/Tabel Referensi by Walid.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4560" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="source" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="390">
   <si>
     <t>No.</t>
   </si>
@@ -2419,8 +2419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2432,7 +2432,10 @@
       <c r="A1" t="s">
         <v>138</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1">
         <v>3</v>
       </c>
       <c r="D1" t="str">
@@ -2440,15 +2443,18 @@
         <v>d3akt</v>
       </c>
       <c r="F1" t="str">
-        <f>"&lt;option value='"&amp;B1&amp;D1&amp;"' class='"&amp;D1&amp;"'&gt;"&amp;B1&amp;"&lt;/option&gt;"</f>
-        <v>&lt;option value='3d3akt' class='d3akt'&gt;3&lt;/option&gt;</v>
+        <f>"&lt;option value='"&amp;C1&amp;D1&amp;"' class='"&amp;D1&amp;"'&gt;"&amp;B1&amp;"&lt;/option&gt;"</f>
+        <v>&lt;option value='3d3akt' class='d3akt'&gt;III&lt;/option&gt;</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="str">
@@ -2456,15 +2462,18 @@
         <v>d3akt</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F25" si="0">"&lt;option value='"&amp;B2&amp;D2&amp;"' class='"&amp;D2&amp;"'&gt;"&amp;B2&amp;"&lt;/option&gt;"</f>
-        <v>&lt;option value='5d3akt' class='d3akt'&gt;5&lt;/option&gt;</v>
+        <f t="shared" ref="F2:F25" si="0">"&lt;option value='"&amp;C2&amp;D2&amp;"' class='"&amp;D2&amp;"'&gt;"&amp;B2&amp;"&lt;/option&gt;"</f>
+        <v>&lt;option value='5d3akt' class='d3akt'&gt;V&lt;/option&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>139</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="str">
@@ -2473,14 +2482,17 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='3d3aktap' class='d3aktap'&gt;3&lt;/option&gt;</v>
+        <v>&lt;option value='3d3aktap' class='d3aktap'&gt;III&lt;/option&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>139</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
       <c r="D4" t="str">
@@ -2489,14 +2501,17 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='5d3aktap' class='d3aktap'&gt;5&lt;/option&gt;</v>
+        <v>&lt;option value='5d3aktap' class='d3aktap'&gt;V&lt;/option&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>149</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
         <v>7</v>
       </c>
       <c r="D5" t="str">
@@ -2505,14 +2520,17 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='7d4aktreg' class='d4aktreg'&gt;7&lt;/option&gt;</v>
+        <v>&lt;option value='7d4aktreg' class='d4aktreg'&gt;VII&lt;/option&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>150</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
         <v>7</v>
       </c>
       <c r="D6" t="str">
@@ -2521,14 +2539,17 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='7d4aktapnonakt' class='d4aktapnonakt'&gt;7&lt;/option&gt;</v>
+        <v>&lt;option value='7d4aktapnonakt' class='d4aktapnonakt'&gt;VII&lt;/option&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>150</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
         <v>9</v>
       </c>
       <c r="D7" t="str">
@@ -2537,14 +2558,17 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='9d4aktapnonakt' class='d4aktapnonakt'&gt;9&lt;/option&gt;</v>
+        <v>&lt;option value='9d4aktapnonakt' class='d4aktapnonakt'&gt;IX&lt;/option&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>140</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="str">
@@ -2553,14 +2577,17 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='1d3pjk' class='d3pjk'&gt;1&lt;/option&gt;</v>
+        <v>&lt;option value='1d3pjk' class='d3pjk'&gt;I&lt;/option&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>140</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="str">
@@ -2569,14 +2596,17 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='3d3pjk' class='d3pjk'&gt;3&lt;/option&gt;</v>
+        <v>&lt;option value='3d3pjk' class='d3pjk'&gt;III&lt;/option&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>140</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="str">
@@ -2585,14 +2615,17 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='5d3pjk' class='d3pjk'&gt;5&lt;/option&gt;</v>
+        <v>&lt;option value='5d3pjk' class='d3pjk'&gt;V&lt;/option&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>141</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="str">
@@ -2601,14 +2634,17 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='3d3pjkap' class='d3pjkap'&gt;3&lt;/option&gt;</v>
+        <v>&lt;option value='3d3pjkap' class='d3pjkap'&gt;III&lt;/option&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>141</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
         <v>5</v>
       </c>
       <c r="D12" t="str">
@@ -2617,14 +2653,17 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='5d3pjkap' class='d3pjkap'&gt;5&lt;/option&gt;</v>
+        <v>&lt;option value='5d3pjkap' class='d3pjkap'&gt;V&lt;/option&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>142</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="str">
@@ -2633,14 +2672,17 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='3d3pbb' class='d3pbb'&gt;3&lt;/option&gt;</v>
+        <v>&lt;option value='3d3pbb' class='d3pbb'&gt;III&lt;/option&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>142</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
         <v>5</v>
       </c>
       <c r="D14" t="str">
@@ -2649,14 +2691,17 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='5d3pbb' class='d3pbb'&gt;5&lt;/option&gt;</v>
+        <v>&lt;option value='5d3pbb' class='d3pbb'&gt;V&lt;/option&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>143</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="str">
@@ -2665,14 +2710,17 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='4d3pbbap' class='d3pbbap'&gt;4&lt;/option&gt;</v>
+        <v>&lt;option value='4d3pbbap' class='d3pbbap'&gt;IV&lt;/option&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>143</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
         <v>5</v>
       </c>
       <c r="D16" t="str">
@@ -2681,14 +2729,17 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='5d3pbbap' class='d3pbbap'&gt;5&lt;/option&gt;</v>
+        <v>&lt;option value='5d3pbbap' class='d3pbbap'&gt;V&lt;/option&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>143</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17">
         <v>6</v>
       </c>
       <c r="D17" t="str">
@@ -2697,14 +2748,17 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='6d3pbbap' class='d3pbbap'&gt;6&lt;/option&gt;</v>
+        <v>&lt;option value='6d3pbbap' class='d3pbbap'&gt;VI&lt;/option&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>144</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
         <v>3</v>
       </c>
       <c r="D18" t="str">
@@ -2713,14 +2767,17 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='3d3bc' class='d3bc'&gt;3&lt;/option&gt;</v>
+        <v>&lt;option value='3d3bc' class='d3bc'&gt;III&lt;/option&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>144</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
         <v>5</v>
       </c>
       <c r="D19" t="str">
@@ -2729,14 +2786,17 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='5d3bc' class='d3bc'&gt;5&lt;/option&gt;</v>
+        <v>&lt;option value='5d3bc' class='d3bc'&gt;V&lt;/option&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>145</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
         <v>5</v>
       </c>
       <c r="D20" t="str">
@@ -2745,14 +2805,17 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='5d3bcap' class='d3bcap'&gt;5&lt;/option&gt;</v>
+        <v>&lt;option value='5d3bcap' class='d3bcap'&gt;V&lt;/option&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>146</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
         <v>3</v>
       </c>
       <c r="D21" t="str">
@@ -2761,14 +2824,17 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='3d3kbn' class='d3kbn'&gt;3&lt;/option&gt;</v>
+        <v>&lt;option value='3d3kbn' class='d3kbn'&gt;III&lt;/option&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>146</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
         <v>5</v>
       </c>
       <c r="D22" t="str">
@@ -2777,14 +2843,17 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='5d3kbn' class='d3kbn'&gt;5&lt;/option&gt;</v>
+        <v>&lt;option value='5d3kbn' class='d3kbn'&gt;V&lt;/option&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>147</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
         <v>5</v>
       </c>
       <c r="D23" t="str">
@@ -2793,14 +2862,17 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='5d3kbnap' class='d3kbnap'&gt;5&lt;/option&gt;</v>
+        <v>&lt;option value='5d3kbnap' class='d3kbnap'&gt;V&lt;/option&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>148</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
         <v>3</v>
       </c>
       <c r="D24" t="str">
@@ -2809,14 +2881,17 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='3d3ma' class='d3ma'&gt;3&lt;/option&gt;</v>
+        <v>&lt;option value='3d3ma' class='d3ma'&gt;III&lt;/option&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>148</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
         <v>5</v>
       </c>
       <c r="D25" t="str">
@@ -2825,7 +2900,7 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;option value='5d3ma' class='d3ma'&gt;5&lt;/option&gt;</v>
+        <v>&lt;option value='5d3ma' class='d3ma'&gt;V&lt;/option&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -2837,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B135" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+    <sheetView topLeftCell="B135" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
